--- a/MCC Datasheet/240-0101-EMEL-DS00-0003 Rev A MCC.xlsx
+++ b/MCC Datasheet/240-0101-EMEL-DS00-0003 Rev A MCC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Project Documentation\P_240_Autocad_Docs\MCC Datasheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="19410" windowHeight="10950" tabRatio="723" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="19410" windowHeight="10950" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="Cover " sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -2153,6 +2158,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2237,12 +2275,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,93 +2287,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2351,34 +2296,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="2" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,14 +2389,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2483,20 +2488,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2506,6 +2505,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2564,7 +2569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="203984"/>
+          <a:off x="3400425" y="203984"/>
           <a:ext cx="952500" cy="599634"/>
           <a:chOff x="6953250" y="266695"/>
           <a:chExt cx="885825" cy="775048"/>
@@ -2892,8 +2897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124195" y="116151"/>
-          <a:ext cx="734404" cy="579176"/>
+          <a:off x="3168497" y="115265"/>
+          <a:ext cx="761207" cy="566993"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -6128,8 +6133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124195" y="116151"/>
-          <a:ext cx="734404" cy="579176"/>
+          <a:off x="3140462" y="111442"/>
+          <a:ext cx="752705" cy="554668"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -10037,8 +10042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="203984"/>
-          <a:ext cx="952500" cy="599634"/>
+          <a:off x="3417065" y="196754"/>
+          <a:ext cx="927253" cy="577945"/>
           <a:chOff x="6953250" y="266695"/>
           <a:chExt cx="885825" cy="775048"/>
         </a:xfrm>
@@ -10365,8 +10370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124195" y="116151"/>
-          <a:ext cx="734404" cy="579176"/>
+          <a:off x="3119604" y="112020"/>
+          <a:ext cx="748290" cy="558175"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -13846,8 +13851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="203984"/>
-          <a:ext cx="952500" cy="599634"/>
+          <a:off x="3417065" y="196754"/>
+          <a:ext cx="927253" cy="577945"/>
           <a:chOff x="6953250" y="266695"/>
           <a:chExt cx="885825" cy="775048"/>
         </a:xfrm>
@@ -14174,8 +14179,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124195" y="116151"/>
-          <a:ext cx="734404" cy="579176"/>
+          <a:off x="3126884" y="114806"/>
+          <a:ext cx="750429" cy="568306"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -18386,8 +18391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="203984"/>
-          <a:ext cx="952500" cy="599634"/>
+          <a:off x="3417065" y="196754"/>
+          <a:ext cx="927253" cy="577945"/>
           <a:chOff x="6953250" y="266695"/>
           <a:chExt cx="885825" cy="775048"/>
         </a:xfrm>
@@ -18714,8 +18719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3124195" y="116151"/>
-          <a:ext cx="734404" cy="579176"/>
+          <a:off x="3119604" y="112020"/>
+          <a:ext cx="748290" cy="558175"/>
           <a:chOff x="7401034" y="70656"/>
           <a:chExt cx="454561" cy="594962"/>
         </a:xfrm>
@@ -21083,8 +21088,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="203984"/>
-          <a:ext cx="952500" cy="599634"/>
+          <a:off x="3417065" y="196754"/>
+          <a:ext cx="927253" cy="577945"/>
           <a:chOff x="6953250" y="266695"/>
           <a:chExt cx="885825" cy="775048"/>
         </a:xfrm>
@@ -21292,7 +21297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21327,7 +21332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21541,8 +21546,8 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -21583,94 +21588,94 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="184" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="187" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="190" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="187" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -21683,12 +21688,12 @@
     </row>
     <row r="7" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
       <c r="H7" s="36" t="s">
         <v>29</v>
       </c>
@@ -21707,12 +21712,12 @@
     </row>
     <row r="8" spans="1:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
       <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
@@ -21751,22 +21756,22 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21818,12 +21823,12 @@
       <c r="J13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="202" t="s">
+      <c r="K13" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="57"/>
       <c r="P13" s="3"/>
     </row>
@@ -22342,8 +22347,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
@@ -22358,8 +22363,8 @@
       <c r="K40" s="112"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
@@ -22374,8 +22379,8 @@
       <c r="K41" s="112"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
       <c r="S41" s="1" t="s">
         <v>7</v>
       </c>
@@ -22393,8 +22398,8 @@
       <c r="K42" s="112"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="181"/>
       <c r="S42" s="1" t="s">
         <v>6</v>
       </c>
@@ -22412,8 +22417,8 @@
       <c r="K43" s="112"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="205"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
       <c r="S43" s="1" t="s">
         <v>5</v>
       </c>
@@ -22431,8 +22436,8 @@
       <c r="K44" s="123"/>
       <c r="L44" s="120"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="207"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="216"/>
       <c r="S44" s="1" t="s">
         <v>4</v>
       </c>
@@ -22441,31 +22446,31 @@
       <c r="B45" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="176">
-        <v>42305</v>
-      </c>
-      <c r="D45" s="177"/>
+      <c r="C45" s="187">
+        <v>42136</v>
+      </c>
+      <c r="D45" s="188"/>
       <c r="E45" s="120">
         <v>2</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="218"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="186"/>
       <c r="L45" s="124" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="217" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="218"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="125" t="s">
@@ -22478,24 +22483,24 @@
       <c r="E46" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="210" t="s">
+      <c r="F46" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="212"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="L46" s="128" t="s">
         <v>230</v>
       </c>
       <c r="M46" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="O46" s="213"/>
+      <c r="O46" s="179"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22522,13 +22527,6 @@
     <row r="65" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="F45:K45"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="B2:G5"/>
     <mergeCell ref="H2:O2"/>
@@ -22541,6 +22539,13 @@
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="F45:K45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44">
@@ -22564,7 +22569,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -22592,13 +22597,13 @@
       <c r="C1" s="155"/>
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="157"/>
       <c r="L1" s="157"/>
       <c r="M1" s="156"/>
@@ -22606,20 +22611,20 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="159"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="78"/>
       <c r="M2" s="77"/>
       <c r="N2" s="160"/>
@@ -22627,20 +22632,20 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="269"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
       <c r="L3" s="78"/>
       <c r="M3" s="77"/>
       <c r="N3" s="160"/>
@@ -22669,117 +22674,117 @@
       <c r="A5" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="234" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="298" t="s">
+      <c r="K5" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="300"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="294"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="279" t="str">
+      <c r="B6" s="240" t="str">
         <f>'Cover '!G24</f>
         <v>SRIKAIL GAS FIELD, BANGLADESH</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="279" t="s">
+      <c r="K6" s="240" t="s">
         <v>216</v>
       </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="285"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="246"/>
       <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="279" t="str">
+      <c r="B7" s="240" t="str">
         <f>'Cover '!G30</f>
         <v>60 MMSCFD SILICA GEL DEHYDRATION TYPE NATURAL GAS PLANT</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="281"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="279" t="s">
+      <c r="K7" s="240" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="285"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="284"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="286">
+      <c r="K8" s="247">
         <v>1</v>
       </c>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="270" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="90">
         <v>1</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="306" t="s">
         <v>215</v>
       </c>
@@ -22793,16 +22798,16 @@
       <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="84">
         <v>1</v>
       </c>
@@ -22816,16 +22821,16 @@
       <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="19" t="s">
         <v>216</v>
       </c>
@@ -22839,7 +22844,7 @@
       <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -22862,16 +22867,16 @@
       <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="88" t="s">
         <v>156</v>
       </c>
@@ -22885,16 +22890,16 @@
       <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="88" t="s">
         <v>154</v>
       </c>
@@ -22908,16 +22913,16 @@
       <c r="O14" s="76"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="92">
         <v>7</v>
       </c>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="151" t="s">
         <v>228</v>
       </c>
@@ -22931,18 +22936,18 @@
       <c r="O15" s="76"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="271" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="93">
         <v>8</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="96" t="s">
         <v>150</v>
       </c>
@@ -22960,12 +22965,12 @@
       <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="131" t="s">
         <v>147</v>
       </c>
@@ -22981,16 +22986,16 @@
       <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="25">
         <v>9</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="131" t="s">
         <v>144</v>
       </c>
@@ -23006,16 +23011,16 @@
       <c r="O18" s="76"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="239"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="19" t="s">
         <v>131</v>
       </c>
@@ -23031,18 +23036,18 @@
       <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="241" t="s">
+      <c r="A20" s="273" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="90">
         <v>14</v>
       </c>
-      <c r="C20" s="254" t="s">
+      <c r="C20" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="256"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="285"/>
       <c r="G20" s="130" t="s">
         <v>118</v>
       </c>
@@ -23060,16 +23065,16 @@
       <c r="O20" s="76"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="242"/>
+      <c r="A21" s="274"/>
       <c r="B21" s="25">
         <v>15</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="131" t="s">
         <v>114</v>
       </c>
@@ -23087,16 +23092,16 @@
       <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="242"/>
+      <c r="A22" s="274"/>
       <c r="B22" s="25">
         <v>16</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="262"/>
       <c r="G22" s="131" t="s">
         <v>81</v>
       </c>
@@ -23112,16 +23117,16 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="242"/>
+      <c r="A23" s="274"/>
       <c r="B23" s="25">
         <v>17</v>
       </c>
-      <c r="C23" s="219" t="s">
+      <c r="C23" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="221"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="261"/>
+      <c r="F23" s="262"/>
       <c r="G23" s="131" t="s">
         <v>109</v>
       </c>
@@ -23137,16 +23142,16 @@
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="242"/>
+      <c r="A24" s="274"/>
       <c r="B24" s="25">
         <v>18</v>
       </c>
-      <c r="C24" s="219" t="s">
+      <c r="C24" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="262"/>
       <c r="G24" s="131" t="s">
         <v>106</v>
       </c>
@@ -23162,16 +23167,16 @@
       <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="242"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="25">
         <v>19</v>
       </c>
-      <c r="C25" s="228" t="s">
+      <c r="C25" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="230"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="288"/>
       <c r="G25" s="131" t="s">
         <v>102</v>
       </c>
@@ -23195,16 +23200,16 @@
       <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="242"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="25">
         <v>20</v>
       </c>
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="131" t="s">
         <v>97</v>
       </c>
@@ -23228,12 +23233,12 @@
       <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="242"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="25"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
+      <c r="C27" s="260"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="131" t="s">
         <v>92</v>
       </c>
@@ -23253,16 +23258,16 @@
       <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="242"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="25">
         <v>21</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="131" t="s">
         <v>88</v>
       </c>
@@ -23280,12 +23285,12 @@
       <c r="O28" s="76"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="242"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="131" t="s">
         <v>86</v>
       </c>
@@ -23303,12 +23308,12 @@
       <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="242"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="262"/>
       <c r="G30" s="131" t="s">
         <v>84</v>
       </c>
@@ -23324,16 +23329,16 @@
       <c r="O30" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="242"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="25">
         <v>22</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="131" t="s">
         <v>81</v>
       </c>
@@ -23349,64 +23354,64 @@
       <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="242"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="25">
         <v>23</v>
       </c>
-      <c r="C32" s="219" t="s">
+      <c r="C32" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="131" t="s">
         <v>79</v>
       </c>
       <c r="H32" s="133"/>
       <c r="I32" s="133"/>
-      <c r="J32" s="234" t="s">
+      <c r="J32" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="269"/>
       <c r="N32" s="134"/>
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="242"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="25">
         <v>24</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="289" t="s">
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
-      <c r="K33" s="290"/>
-      <c r="L33" s="290"/>
-      <c r="M33" s="290"/>
-      <c r="N33" s="291"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="251"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="251"/>
+      <c r="M33" s="251"/>
+      <c r="N33" s="252"/>
       <c r="O33" s="76"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="242"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="25">
         <v>25</v>
       </c>
-      <c r="C34" s="219" t="s">
+      <c r="C34" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
       <c r="G34" s="131" t="s">
         <v>74</v>
       </c>
@@ -23417,29 +23422,29 @@
       <c r="J34" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="K34" s="232" t="s">
+      <c r="K34" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="L34" s="232"/>
-      <c r="M34" s="232"/>
+      <c r="L34" s="253"/>
+      <c r="M34" s="253"/>
       <c r="N34" s="134"/>
       <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="242"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
       <c r="G35" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="257" t="s">
+      <c r="H35" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="257"/>
-      <c r="J35" s="257"/>
+      <c r="I35" s="254"/>
+      <c r="J35" s="254"/>
       <c r="K35" s="20" t="s">
         <v>68</v>
       </c>
@@ -23449,16 +23454,16 @@
       <c r="O35" s="76"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="242"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="25">
         <v>26</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="221"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="262"/>
       <c r="G36" s="131" t="s">
         <v>66</v>
       </c>
@@ -23474,7 +23479,7 @@
       <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="243"/>
+      <c r="A37" s="275"/>
       <c r="B37" s="99">
         <v>27</v>
       </c>
@@ -23497,16 +23502,16 @@
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="243"/>
+      <c r="A38" s="275"/>
       <c r="B38" s="91">
         <v>27</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="262"/>
       <c r="G38" s="131" t="s">
         <v>63</v>
       </c>
@@ -23524,12 +23529,12 @@
       <c r="O38" s="76"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="244"/>
+      <c r="A39" s="276"/>
       <c r="B39" s="152"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="224"/>
+      <c r="C39" s="289"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="291"/>
       <c r="G39" s="145" t="s">
         <v>60</v>
       </c>
@@ -23545,117 +23550,117 @@
       <c r="O39" s="76"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="245" t="s">
+      <c r="A40" s="277" t="s">
         <v>218</v>
       </c>
       <c r="B40" s="93">
         <v>30</v>
       </c>
-      <c r="C40" s="225" t="s">
+      <c r="C40" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="226"/>
-      <c r="E40" s="226"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="292" t="s">
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="268"/>
+      <c r="G40" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="293"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="293"/>
-      <c r="K40" s="293"/>
-      <c r="L40" s="293"/>
-      <c r="M40" s="293"/>
-      <c r="N40" s="294"/>
+      <c r="H40" s="299"/>
+      <c r="I40" s="299"/>
+      <c r="J40" s="299"/>
+      <c r="K40" s="299"/>
+      <c r="L40" s="299"/>
+      <c r="M40" s="299"/>
+      <c r="N40" s="300"/>
       <c r="O40" s="76"/>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="245"/>
+      <c r="A41" s="277"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="231" t="s">
+      <c r="C41" s="260"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="232"/>
-      <c r="L41" s="232"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="233"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="253"/>
+      <c r="K41" s="253"/>
+      <c r="L41" s="253"/>
+      <c r="M41" s="253"/>
+      <c r="N41" s="259"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="245"/>
+      <c r="A42" s="277"/>
       <c r="B42" s="25"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="231" t="s">
+      <c r="C42" s="260"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="258" t="s">
         <v>221</v>
       </c>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
-      <c r="K42" s="232"/>
-      <c r="L42" s="232"/>
-      <c r="M42" s="232"/>
-      <c r="N42" s="233"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="253"/>
+      <c r="J42" s="253"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="253"/>
+      <c r="N42" s="259"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="245"/>
+      <c r="A43" s="277"/>
       <c r="B43" s="25">
         <v>31</v>
       </c>
-      <c r="C43" s="219" t="s">
+      <c r="C43" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="231" t="s">
+      <c r="D43" s="261"/>
+      <c r="E43" s="261"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="232"/>
-      <c r="L43" s="232"/>
-      <c r="M43" s="232"/>
-      <c r="N43" s="233"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
+      <c r="J43" s="253"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="253"/>
+      <c r="N43" s="259"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="245"/>
+      <c r="A44" s="277"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="231" t="s">
+      <c r="C44" s="260"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="261"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="232"/>
-      <c r="I44" s="232"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="232"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="233"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253"/>
+      <c r="L44" s="253"/>
+      <c r="M44" s="253"/>
+      <c r="N44" s="259"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="245"/>
+      <c r="A45" s="277"/>
       <c r="B45" s="25">
         <v>32</v>
       </c>
-      <c r="C45" s="219" t="s">
+      <c r="C45" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="221"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="262"/>
       <c r="G45" s="19" t="s">
         <v>50</v>
       </c>
@@ -23668,16 +23673,16 @@
       <c r="N45" s="164"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="245"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="25">
         <v>33</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="220"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="221"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
       <c r="G46" s="18" t="s">
         <v>179</v>
       </c>
@@ -23690,16 +23695,16 @@
       <c r="N46" s="164"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
+      <c r="A47" s="277"/>
       <c r="B47" s="25">
         <v>34</v>
       </c>
-      <c r="C47" s="219" t="s">
+      <c r="C47" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="221"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="262"/>
       <c r="G47" s="18" t="s">
         <v>179</v>
       </c>
@@ -23712,16 +23717,16 @@
       <c r="N47" s="164"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="25">
         <v>35</v>
       </c>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="262"/>
       <c r="G48" s="18" t="s">
         <v>179</v>
       </c>
@@ -23734,16 +23739,16 @@
       <c r="N48" s="164"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="245"/>
+      <c r="A49" s="277"/>
       <c r="B49" s="25">
         <v>36</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="221"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="262"/>
       <c r="G49" s="18" t="s">
         <v>184</v>
       </c>
@@ -23756,16 +23761,16 @@
       <c r="N49" s="164"/>
     </row>
     <row r="50" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="246"/>
+      <c r="A50" s="278"/>
       <c r="B50" s="94">
         <v>39</v>
       </c>
-      <c r="C50" s="222" t="s">
+      <c r="C50" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="224"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="290"/>
+      <c r="F50" s="291"/>
       <c r="G50" s="15" t="s">
         <v>220</v>
       </c>
@@ -23913,57 +23918,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A20:A39"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:N33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="K34:M34"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="A40:A50"/>
     <mergeCell ref="C40:F40"/>
@@ -23980,10 +23934,61 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:N33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="A20:A39"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.2"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -23998,7 +24003,7 @@
   </sheetPr>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:F19"/>
     </sheetView>
   </sheetViews>
@@ -24026,13 +24031,13 @@
       <c r="C1" s="155"/>
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="157"/>
       <c r="L1" s="157"/>
       <c r="M1" s="156"/>
@@ -24040,20 +24045,20 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="159"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="78"/>
       <c r="M2" s="77"/>
       <c r="N2" s="160"/>
@@ -24061,20 +24066,20 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="269"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
       <c r="L3" s="78"/>
       <c r="M3" s="77"/>
       <c r="N3" s="160"/>
@@ -24103,117 +24108,117 @@
       <c r="A5" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="234" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="270" t="s">
+      <c r="K5" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="272"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="233"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="279" t="str">
+      <c r="B6" s="240" t="str">
         <f>'Cover '!G24</f>
         <v>SRIKAIL GAS FIELD, BANGLADESH</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="279" t="s">
+      <c r="K6" s="240" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="285"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="246"/>
       <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="276" t="str">
+      <c r="B7" s="237" t="str">
         <f>'Cover '!G30</f>
         <v>60 MMSCFD SILICA GEL DEHYDRATION TYPE NATURAL GAS PLANT</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="278"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="279" t="s">
+      <c r="K7" s="240" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="285"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="284"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="286" t="s">
+      <c r="K8" s="247" t="s">
         <v>241</v>
       </c>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="270" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="90">
         <v>1</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="147" t="s">
         <v>186</v>
       </c>
@@ -24227,16 +24232,16 @@
       <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="84">
         <v>1</v>
       </c>
@@ -24250,16 +24255,16 @@
       <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="19" t="s">
         <v>185</v>
       </c>
@@ -24273,7 +24278,7 @@
       <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -24296,16 +24301,16 @@
       <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="88" t="s">
         <v>156</v>
       </c>
@@ -24319,16 +24324,16 @@
       <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="88" t="s">
         <v>154</v>
       </c>
@@ -24342,16 +24347,16 @@
       <c r="O14" s="76"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="92">
         <v>7</v>
       </c>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="151" t="s">
         <v>225</v>
       </c>
@@ -24365,18 +24370,18 @@
       <c r="O15" s="76"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="271" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="93">
         <v>8</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="96" t="s">
         <v>150</v>
       </c>
@@ -24394,12 +24399,12 @@
       <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="131" t="s">
         <v>147</v>
       </c>
@@ -24415,16 +24420,16 @@
       <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="25">
         <v>9</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="131" t="s">
         <v>144</v>
       </c>
@@ -24440,16 +24445,16 @@
       <c r="O18" s="76"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="131" t="s">
         <v>102</v>
       </c>
@@ -24473,12 +24478,12 @@
       <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
       <c r="G20" s="131" t="s">
         <v>137</v>
       </c>
@@ -24500,16 +24505,16 @@
       <c r="O20" s="76"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="271"/>
       <c r="B21" s="25">
         <v>11</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="19" t="s">
         <v>131</v>
       </c>
@@ -24525,16 +24530,16 @@
       <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="271"/>
       <c r="B22" s="25">
         <v>12</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="262"/>
       <c r="G22" s="131" t="s">
         <v>182</v>
       </c>
@@ -24556,16 +24561,16 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239"/>
+      <c r="A23" s="271"/>
       <c r="B23" s="89">
         <v>13</v>
       </c>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="280" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="253"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="282"/>
       <c r="G23" s="24" t="s">
         <v>123</v>
       </c>
@@ -24576,27 +24581,27 @@
       <c r="J23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="250" t="s">
+      <c r="K23" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
       <c r="N23" s="137"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="273" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="90">
         <v>14</v>
       </c>
-      <c r="C24" s="254" t="s">
+      <c r="C24" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="256"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="130" t="s">
         <v>118</v>
       </c>
@@ -24614,16 +24619,16 @@
       <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="242"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="25">
         <v>15</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
       <c r="G25" s="131" t="s">
         <v>114</v>
       </c>
@@ -24641,16 +24646,16 @@
       <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="242"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="25">
         <v>16</v>
       </c>
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="131" t="s">
         <v>81</v>
       </c>
@@ -24666,16 +24671,16 @@
       <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="242"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="25">
         <v>17</v>
       </c>
-      <c r="C27" s="219" t="s">
+      <c r="C27" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="131" t="s">
         <v>109</v>
       </c>
@@ -24691,16 +24696,16 @@
       <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="242"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="25">
         <v>18</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="131" t="s">
         <v>106</v>
       </c>
@@ -24716,16 +24721,16 @@
       <c r="O28" s="76"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="242"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="25">
         <v>19</v>
       </c>
-      <c r="C29" s="219" t="s">
+      <c r="C29" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="21" t="s">
         <v>179</v>
       </c>
@@ -24739,16 +24744,16 @@
       <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="242"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="25">
         <v>20</v>
       </c>
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="230"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="288"/>
       <c r="G30" s="131" t="s">
         <v>102</v>
       </c>
@@ -24772,16 +24777,16 @@
       <c r="O30" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="242"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="25">
         <v>21</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="131" t="s">
         <v>97</v>
       </c>
@@ -24805,12 +24810,12 @@
       <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="242"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="131" t="s">
         <v>92</v>
       </c>
@@ -24830,16 +24835,16 @@
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="242"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="25">
         <v>22</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
       <c r="G33" s="131" t="s">
         <v>88</v>
       </c>
@@ -24857,12 +24862,12 @@
       <c r="O33" s="76"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="242"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
       <c r="G34" s="131" t="s">
         <v>86</v>
       </c>
@@ -24880,12 +24885,12 @@
       <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="242"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
       <c r="G35" s="131" t="s">
         <v>84</v>
       </c>
@@ -24901,16 +24906,16 @@
       <c r="O35" s="76"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="242"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="25">
         <v>23</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="221"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="262"/>
       <c r="G36" s="131" t="s">
         <v>81</v>
       </c>
@@ -24926,64 +24931,64 @@
       <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="242"/>
+      <c r="A37" s="274"/>
       <c r="B37" s="25">
         <v>24</v>
       </c>
-      <c r="C37" s="219" t="s">
+      <c r="C37" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="G37" s="131" t="s">
         <v>79</v>
       </c>
       <c r="H37" s="133"/>
       <c r="I37" s="133"/>
-      <c r="J37" s="234" t="s">
+      <c r="J37" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="269"/>
       <c r="N37" s="134"/>
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="242"/>
+      <c r="A38" s="274"/>
       <c r="B38" s="25">
         <v>25</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="289" t="s">
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="290"/>
-      <c r="N38" s="291"/>
+      <c r="H38" s="251"/>
+      <c r="I38" s="251"/>
+      <c r="J38" s="251"/>
+      <c r="K38" s="251"/>
+      <c r="L38" s="251"/>
+      <c r="M38" s="251"/>
+      <c r="N38" s="252"/>
       <c r="O38" s="76"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="242"/>
+      <c r="A39" s="274"/>
       <c r="B39" s="25">
         <v>26</v>
       </c>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
+      <c r="F39" s="262"/>
       <c r="G39" s="131" t="s">
         <v>74</v>
       </c>
@@ -24994,29 +24999,29 @@
       <c r="J39" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="K39" s="232" t="s">
+      <c r="K39" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="232"/>
-      <c r="M39" s="232"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="253"/>
       <c r="N39" s="134"/>
       <c r="O39" s="76"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="242"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="221"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="262"/>
       <c r="G40" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="257" t="s">
+      <c r="H40" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
       <c r="K40" s="20" t="s">
         <v>68</v>
       </c>
@@ -25026,16 +25031,16 @@
       <c r="O40" s="76"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="242"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="25">
         <v>27</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
       <c r="G41" s="131" t="s">
         <v>222</v>
       </c>
@@ -25051,16 +25056,16 @@
       <c r="O41" s="76"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="243"/>
+      <c r="A42" s="275"/>
       <c r="B42" s="91">
         <v>28</v>
       </c>
-      <c r="C42" s="219" t="s">
+      <c r="C42" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="262"/>
       <c r="G42" s="131" t="s">
         <v>63</v>
       </c>
@@ -25078,12 +25083,12 @@
       <c r="O42" s="76"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
+      <c r="A43" s="276"/>
       <c r="B43" s="152"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="224"/>
+      <c r="C43" s="289"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="291"/>
       <c r="G43" s="131" t="s">
         <v>60</v>
       </c>
@@ -25099,90 +25104,90 @@
       <c r="O43" s="76"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="245" t="s">
+      <c r="A44" s="277" t="s">
         <v>196</v>
       </c>
       <c r="B44" s="93">
         <v>30</v>
       </c>
-      <c r="C44" s="225" t="s">
+      <c r="C44" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="247" t="s">
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="268"/>
+      <c r="G44" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="248"/>
-      <c r="I44" s="248"/>
-      <c r="J44" s="248"/>
-      <c r="K44" s="248"/>
-      <c r="L44" s="248"/>
-      <c r="M44" s="248"/>
-      <c r="N44" s="249"/>
+      <c r="H44" s="220"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
+      <c r="K44" s="220"/>
+      <c r="L44" s="220"/>
+      <c r="M44" s="220"/>
+      <c r="N44" s="221"/>
       <c r="O44" s="76"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="245"/>
+      <c r="A45" s="277"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="231" t="s">
+      <c r="C45" s="260"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="262"/>
+      <c r="G45" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="232"/>
-      <c r="I45" s="232"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="232"/>
-      <c r="L45" s="232"/>
-      <c r="M45" s="232"/>
-      <c r="N45" s="233"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="253"/>
+      <c r="J45" s="253"/>
+      <c r="K45" s="253"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="253"/>
+      <c r="N45" s="259"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="245"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="25">
         <v>31</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="220"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="221"/>
-      <c r="G46" s="231" t="s">
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="232"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="232"/>
-      <c r="L46" s="232"/>
-      <c r="M46" s="232"/>
-      <c r="N46" s="233"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="253"/>
+      <c r="K46" s="253"/>
+      <c r="L46" s="253"/>
+      <c r="M46" s="253"/>
+      <c r="N46" s="259"/>
     </row>
     <row r="47" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
+      <c r="A47" s="277"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="231" t="s">
+      <c r="C47" s="260"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="262"/>
+      <c r="G47" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="232"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="232"/>
-      <c r="L47" s="232"/>
-      <c r="M47" s="232"/>
-      <c r="N47" s="233"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="253"/>
+      <c r="J47" s="253"/>
+      <c r="K47" s="253"/>
+      <c r="L47" s="253"/>
+      <c r="M47" s="253"/>
+      <c r="N47" s="259"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="25">
         <v>32</v>
       </c>
@@ -25192,21 +25197,21 @@
       <c r="D48" s="133"/>
       <c r="E48" s="133"/>
       <c r="F48" s="134"/>
-      <c r="G48" s="247" t="s">
+      <c r="G48" s="219" t="s">
         <v>223</v>
       </c>
-      <c r="H48" s="248" t="s">
+      <c r="H48" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="I48" s="248"/>
-      <c r="J48" s="248"/>
-      <c r="K48" s="248"/>
-      <c r="L48" s="248"/>
-      <c r="M48" s="248"/>
-      <c r="N48" s="249"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="220"/>
+      <c r="M48" s="220"/>
+      <c r="N48" s="221"/>
     </row>
     <row r="49" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="245"/>
+      <c r="A49" s="277"/>
       <c r="B49" s="25">
         <v>33</v>
       </c>
@@ -25228,16 +25233,16 @@
       <c r="N49" s="165"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="245"/>
+      <c r="A50" s="277"/>
       <c r="B50" s="25">
         <v>34</v>
       </c>
-      <c r="C50" s="219" t="s">
+      <c r="C50" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="220"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="221"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="262"/>
       <c r="G50" s="19" t="s">
         <v>50</v>
       </c>
@@ -25250,16 +25255,16 @@
       <c r="N50" s="164"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="245"/>
+      <c r="A51" s="277"/>
       <c r="B51" s="25">
         <v>35</v>
       </c>
-      <c r="C51" s="219" t="s">
+      <c r="C51" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="221"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="261"/>
+      <c r="F51" s="262"/>
       <c r="G51" s="18" t="s">
         <v>179</v>
       </c>
@@ -25272,16 +25277,16 @@
       <c r="N51" s="164"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="245"/>
+      <c r="A52" s="277"/>
       <c r="B52" s="25">
         <v>36</v>
       </c>
-      <c r="C52" s="219" t="s">
+      <c r="C52" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="220"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="221"/>
+      <c r="D52" s="261"/>
+      <c r="E52" s="261"/>
+      <c r="F52" s="262"/>
       <c r="G52" s="18" t="s">
         <v>179</v>
       </c>
@@ -25294,16 +25299,16 @@
       <c r="N52" s="164"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="245"/>
+      <c r="A53" s="277"/>
       <c r="B53" s="25">
         <v>37</v>
       </c>
-      <c r="C53" s="219" t="s">
+      <c r="C53" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="221"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="262"/>
       <c r="G53" s="18" t="s">
         <v>179</v>
       </c>
@@ -25316,16 +25321,16 @@
       <c r="N53" s="164"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="245"/>
+      <c r="A54" s="277"/>
       <c r="B54" s="25">
         <v>38</v>
       </c>
-      <c r="C54" s="219" t="s">
+      <c r="C54" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="220"/>
-      <c r="E54" s="220"/>
-      <c r="F54" s="221"/>
+      <c r="D54" s="261"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="262"/>
       <c r="G54" s="18" t="s">
         <v>184</v>
       </c>
@@ -25338,16 +25343,16 @@
       <c r="N54" s="164"/>
     </row>
     <row r="55" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="246"/>
+      <c r="A55" s="278"/>
       <c r="B55" s="94">
         <v>39</v>
       </c>
-      <c r="C55" s="222" t="s">
+      <c r="C55" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="223"/>
-      <c r="E55" s="223"/>
-      <c r="F55" s="224"/>
+      <c r="D55" s="290"/>
+      <c r="E55" s="290"/>
+      <c r="F55" s="291"/>
       <c r="G55" s="15" t="s">
         <v>220</v>
       </c>
@@ -25495,6 +25500,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G47:N47"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="G48:N48"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="F1:J1"/>
@@ -25511,65 +25571,10 @@
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="G38:N38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G47:N47"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A43"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.2"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -25584,8 +25589,8 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A40" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -25626,94 +25631,94 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="184" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="187" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="190" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="187" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -25726,12 +25731,12 @@
     </row>
     <row r="7" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
       <c r="H7" s="36" t="s">
         <v>29</v>
       </c>
@@ -25750,12 +25755,12 @@
     </row>
     <row r="8" spans="1:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
       <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
@@ -25794,22 +25799,22 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -25861,12 +25866,12 @@
       <c r="J13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="202" t="s">
+      <c r="K13" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="57"/>
       <c r="P13" s="3"/>
     </row>
@@ -26385,8 +26390,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
@@ -26401,8 +26406,8 @@
       <c r="K40" s="112"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
@@ -26417,8 +26422,8 @@
       <c r="K41" s="112"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
       <c r="S41" s="1" t="s">
         <v>7</v>
       </c>
@@ -26436,8 +26441,8 @@
       <c r="K42" s="112"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="181"/>
       <c r="S42" s="1" t="s">
         <v>6</v>
       </c>
@@ -26455,8 +26460,8 @@
       <c r="K43" s="112"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="205"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
       <c r="S43" s="1" t="s">
         <v>5</v>
       </c>
@@ -26474,8 +26479,8 @@
       <c r="K44" s="123"/>
       <c r="L44" s="120"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="207"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="216"/>
       <c r="S44" s="1" t="s">
         <v>4</v>
       </c>
@@ -26484,31 +26489,31 @@
       <c r="B45" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="176">
-        <v>42305</v>
-      </c>
-      <c r="D45" s="177"/>
+      <c r="C45" s="187">
+        <v>42136</v>
+      </c>
+      <c r="D45" s="188"/>
       <c r="E45" s="129">
         <v>2</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="218"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="186"/>
       <c r="L45" s="124" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="217" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="218"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="125" t="s">
@@ -26521,24 +26526,24 @@
       <c r="E46" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="210" t="s">
+      <c r="F46" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="212"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="L46" s="128" t="s">
         <v>230</v>
       </c>
       <c r="M46" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="O46" s="213"/>
+      <c r="O46" s="179"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26565,11 +26570,12 @@
     <row r="65" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="B2:G5"/>
@@ -26578,12 +26584,11 @@
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="B6:G8"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44">
@@ -26635,13 +26640,13 @@
       <c r="C1" s="155"/>
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="157"/>
       <c r="L1" s="157"/>
       <c r="M1" s="156"/>
@@ -26649,20 +26654,20 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="159"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="78"/>
       <c r="M2" s="77"/>
       <c r="N2" s="160"/>
@@ -26670,20 +26675,20 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="269"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
       <c r="L3" s="78"/>
       <c r="M3" s="77"/>
       <c r="N3" s="160"/>
@@ -26712,42 +26717,42 @@
       <c r="A5" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="234" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="298" t="s">
+      <c r="K5" s="292" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="300"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="294"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="279" t="str">
+      <c r="B6" s="240" t="str">
         <f>'Cover '!G24</f>
         <v>SRIKAIL GAS FIELD, BANGLADESH</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="83" t="s">
         <v>170</v>
       </c>
@@ -26763,66 +26768,66 @@
       <c r="A7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="276" t="str">
+      <c r="B7" s="237" t="str">
         <f>'Cover '!G30</f>
         <v>60 MMSCFD SILICA GEL DEHYDRATION TYPE NATURAL GAS PLANT</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="278"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="279" t="s">
+      <c r="K7" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="285"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="284"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="286">
+      <c r="K8" s="247">
         <v>1</v>
       </c>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="270" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="90">
         <v>1</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="147" t="s">
         <v>238</v>
       </c>
@@ -26836,16 +26841,16 @@
       <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="84">
         <v>1</v>
       </c>
@@ -26859,16 +26864,16 @@
       <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="19" t="s">
         <v>197</v>
       </c>
@@ -26882,7 +26887,7 @@
       <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -26905,16 +26910,16 @@
       <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="88" t="s">
         <v>156</v>
       </c>
@@ -26928,16 +26933,16 @@
       <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="88" t="s">
         <v>154</v>
       </c>
@@ -26951,16 +26956,16 @@
       <c r="O14" s="76"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="92">
         <v>7</v>
       </c>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="151" t="s">
         <v>225</v>
       </c>
@@ -26974,18 +26979,18 @@
       <c r="O15" s="76"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="271" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="93">
         <v>8</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="96" t="s">
         <v>199</v>
       </c>
@@ -27003,12 +27008,12 @@
       <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="131" t="s">
         <v>198</v>
       </c>
@@ -27024,16 +27029,16 @@
       <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="25">
         <v>9</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="131" t="s">
         <v>144</v>
       </c>
@@ -27049,16 +27054,16 @@
       <c r="O18" s="76"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="131" t="s">
         <v>102</v>
       </c>
@@ -27082,12 +27087,12 @@
       <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
       <c r="G20" s="131" t="s">
         <v>137</v>
       </c>
@@ -27109,16 +27114,16 @@
       <c r="O20" s="76"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="271"/>
       <c r="B21" s="25">
         <v>11</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="19" t="s">
         <v>131</v>
       </c>
@@ -27134,16 +27139,16 @@
       <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="271"/>
       <c r="B22" s="25">
         <v>12</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="262"/>
       <c r="G22" s="131" t="s">
         <v>182</v>
       </c>
@@ -27165,16 +27170,16 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239"/>
+      <c r="A23" s="271"/>
       <c r="B23" s="89">
         <v>13</v>
       </c>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="280" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="253"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="282"/>
       <c r="G23" s="24" t="s">
         <v>123</v>
       </c>
@@ -27185,27 +27190,27 @@
       <c r="J23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="250" t="s">
+      <c r="K23" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
       <c r="N23" s="137"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="273" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="90">
         <v>14</v>
       </c>
-      <c r="C24" s="254" t="s">
+      <c r="C24" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="256"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="130" t="s">
         <v>118</v>
       </c>
@@ -27223,16 +27228,16 @@
       <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="242"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="25">
         <v>15</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
       <c r="G25" s="131" t="s">
         <v>114</v>
       </c>
@@ -27250,16 +27255,16 @@
       <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="242"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="25">
         <v>16</v>
       </c>
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="131" t="s">
         <v>81</v>
       </c>
@@ -27275,16 +27280,16 @@
       <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="242"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="25">
         <v>17</v>
       </c>
-      <c r="C27" s="219" t="s">
+      <c r="C27" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="131" t="s">
         <v>109</v>
       </c>
@@ -27300,16 +27305,16 @@
       <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="242"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="25">
         <v>18</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="131" t="s">
         <v>106</v>
       </c>
@@ -27325,16 +27330,16 @@
       <c r="O28" s="76"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="242"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="25">
         <v>19</v>
       </c>
-      <c r="C29" s="219" t="s">
+      <c r="C29" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="21" t="s">
         <v>179</v>
       </c>
@@ -27348,16 +27353,16 @@
       <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="242"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="25">
         <v>20</v>
       </c>
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="230"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="288"/>
       <c r="G30" s="131" t="s">
         <v>102</v>
       </c>
@@ -27381,16 +27386,16 @@
       <c r="O30" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="242"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="25">
         <v>21</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="131" t="s">
         <v>97</v>
       </c>
@@ -27414,12 +27419,12 @@
       <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="242"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="131" t="s">
         <v>92</v>
       </c>
@@ -27439,16 +27444,16 @@
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="242"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="25">
         <v>22</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
       <c r="G33" s="131" t="s">
         <v>88</v>
       </c>
@@ -27466,12 +27471,12 @@
       <c r="O33" s="76"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="242"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
       <c r="G34" s="131" t="s">
         <v>86</v>
       </c>
@@ -27489,12 +27494,12 @@
       <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="242"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
       <c r="G35" s="131" t="s">
         <v>84</v>
       </c>
@@ -27510,16 +27515,16 @@
       <c r="O35" s="76"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="242"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="25">
         <v>23</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="221"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="262"/>
       <c r="G36" s="131" t="s">
         <v>81</v>
       </c>
@@ -27535,64 +27540,64 @@
       <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="242"/>
+      <c r="A37" s="274"/>
       <c r="B37" s="25">
         <v>24</v>
       </c>
-      <c r="C37" s="219" t="s">
+      <c r="C37" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="G37" s="131" t="s">
         <v>79</v>
       </c>
       <c r="H37" s="133"/>
       <c r="I37" s="133"/>
-      <c r="J37" s="234" t="s">
+      <c r="J37" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="269"/>
       <c r="N37" s="134"/>
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="242"/>
+      <c r="A38" s="274"/>
       <c r="B38" s="25">
         <v>25</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="289" t="s">
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="290"/>
-      <c r="N38" s="291"/>
+      <c r="H38" s="251"/>
+      <c r="I38" s="251"/>
+      <c r="J38" s="251"/>
+      <c r="K38" s="251"/>
+      <c r="L38" s="251"/>
+      <c r="M38" s="251"/>
+      <c r="N38" s="252"/>
       <c r="O38" s="76"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="242"/>
+      <c r="A39" s="274"/>
       <c r="B39" s="25">
         <v>26</v>
       </c>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
+      <c r="F39" s="262"/>
       <c r="G39" s="131" t="s">
         <v>74</v>
       </c>
@@ -27603,29 +27608,29 @@
       <c r="J39" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="K39" s="232" t="s">
+      <c r="K39" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="232"/>
-      <c r="M39" s="232"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="253"/>
       <c r="N39" s="134"/>
       <c r="O39" s="76"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="242"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="221"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="262"/>
       <c r="G40" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="257" t="s">
+      <c r="H40" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
       <c r="K40" s="20" t="s">
         <v>68</v>
       </c>
@@ -27635,16 +27640,16 @@
       <c r="O40" s="76"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="242"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="25">
         <v>27</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
       <c r="G41" s="131" t="s">
         <v>66</v>
       </c>
@@ -27660,16 +27665,16 @@
       <c r="O41" s="76"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="243"/>
+      <c r="A42" s="275"/>
       <c r="B42" s="91">
         <v>28</v>
       </c>
-      <c r="C42" s="219" t="s">
+      <c r="C42" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="262"/>
       <c r="G42" s="131" t="s">
         <v>63</v>
       </c>
@@ -27687,12 +27692,12 @@
       <c r="O42" s="76"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="244"/>
+      <c r="A43" s="276"/>
       <c r="B43" s="152"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="224"/>
+      <c r="C43" s="289"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="291"/>
       <c r="G43" s="145" t="s">
         <v>60</v>
       </c>
@@ -27708,47 +27713,47 @@
       <c r="O43" s="76"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="245"/>
+      <c r="A44" s="277"/>
       <c r="B44" s="93">
         <v>32</v>
       </c>
-      <c r="C44" s="225" t="s">
+      <c r="C44" s="266" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="292" t="s">
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="268"/>
+      <c r="G44" s="298" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="293"/>
-      <c r="I44" s="293"/>
-      <c r="J44" s="293"/>
-      <c r="K44" s="293"/>
-      <c r="L44" s="293"/>
-      <c r="M44" s="293"/>
-      <c r="N44" s="294"/>
+      <c r="H44" s="299"/>
+      <c r="I44" s="299"/>
+      <c r="J44" s="299"/>
+      <c r="K44" s="299"/>
+      <c r="L44" s="299"/>
+      <c r="M44" s="299"/>
+      <c r="N44" s="300"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="245"/>
+      <c r="A45" s="277"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="231" t="s">
+      <c r="C45" s="260"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="262"/>
+      <c r="G45" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="232"/>
-      <c r="I45" s="232"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="232"/>
-      <c r="L45" s="232"/>
-      <c r="M45" s="232"/>
-      <c r="N45" s="233"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="253"/>
+      <c r="J45" s="253"/>
+      <c r="K45" s="253"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="253"/>
+      <c r="N45" s="259"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="245"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="25">
         <v>33</v>
       </c>
@@ -27758,28 +27763,28 @@
       <c r="D46" s="133"/>
       <c r="E46" s="133"/>
       <c r="F46" s="134"/>
-      <c r="G46" s="231" t="s">
+      <c r="G46" s="258" t="s">
         <v>191</v>
       </c>
-      <c r="H46" s="232"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="232"/>
-      <c r="L46" s="232"/>
-      <c r="M46" s="232"/>
-      <c r="N46" s="233"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="253"/>
+      <c r="K46" s="253"/>
+      <c r="L46" s="253"/>
+      <c r="M46" s="253"/>
+      <c r="N46" s="259"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
+      <c r="A47" s="277"/>
       <c r="B47" s="25">
         <v>33</v>
       </c>
-      <c r="C47" s="219" t="s">
+      <c r="C47" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="221"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="262"/>
       <c r="G47" s="19" t="s">
         <v>50</v>
       </c>
@@ -27792,16 +27797,16 @@
       <c r="N47" s="164"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="25">
         <v>34</v>
       </c>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="262"/>
       <c r="G48" s="18" t="s">
         <v>179</v>
       </c>
@@ -27814,16 +27819,16 @@
       <c r="N48" s="164"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="245"/>
+      <c r="A49" s="277"/>
       <c r="B49" s="25">
         <v>35</v>
       </c>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="221"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="262"/>
       <c r="G49" s="18" t="s">
         <v>179</v>
       </c>
@@ -27836,16 +27841,16 @@
       <c r="N49" s="164"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="245"/>
+      <c r="A50" s="277"/>
       <c r="B50" s="25">
         <v>36</v>
       </c>
-      <c r="C50" s="219" t="s">
+      <c r="C50" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="220"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="221"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="262"/>
       <c r="G50" s="18" t="s">
         <v>179</v>
       </c>
@@ -27858,16 +27863,16 @@
       <c r="N50" s="164"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="245"/>
+      <c r="A51" s="277"/>
       <c r="B51" s="25">
         <v>37</v>
       </c>
-      <c r="C51" s="219" t="s">
+      <c r="C51" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="221"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="261"/>
+      <c r="F51" s="262"/>
       <c r="G51" s="18" t="s">
         <v>184</v>
       </c>
@@ -27880,16 +27885,16 @@
       <c r="N51" s="164"/>
     </row>
     <row r="52" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="246"/>
+      <c r="A52" s="278"/>
       <c r="B52" s="94">
         <v>39</v>
       </c>
-      <c r="C52" s="222" t="s">
+      <c r="C52" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D52" s="223"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="224"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="290"/>
+      <c r="F52" s="291"/>
       <c r="G52" s="15" t="s">
         <v>220</v>
       </c>
@@ -28037,29 +28042,34 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="G46:N46"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="A24:A43"/>
     <mergeCell ref="C24:F24"/>
@@ -28076,34 +28086,29 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="G46:N46"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.2"/>
@@ -28122,8 +28127,8 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -28164,94 +28169,94 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="184" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="187" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="190" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="187" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -28264,12 +28269,12 @@
     </row>
     <row r="7" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
       <c r="H7" s="36" t="s">
         <v>29</v>
       </c>
@@ -28288,12 +28293,12 @@
     </row>
     <row r="8" spans="1:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
       <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
@@ -28332,22 +28337,22 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28399,12 +28404,12 @@
       <c r="J13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="202" t="s">
+      <c r="K13" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="57"/>
       <c r="P13" s="3"/>
     </row>
@@ -28923,8 +28928,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
@@ -28939,8 +28944,8 @@
       <c r="K40" s="112"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
@@ -28955,8 +28960,8 @@
       <c r="K41" s="112"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
       <c r="S41" s="1" t="s">
         <v>7</v>
       </c>
@@ -28974,8 +28979,8 @@
       <c r="K42" s="112"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="181"/>
       <c r="S42" s="1" t="s">
         <v>6</v>
       </c>
@@ -28993,8 +28998,8 @@
       <c r="K43" s="112"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="205"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
       <c r="S43" s="1" t="s">
         <v>5</v>
       </c>
@@ -29012,8 +29017,8 @@
       <c r="K44" s="123"/>
       <c r="L44" s="120"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="207"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="216"/>
       <c r="S44" s="1" t="s">
         <v>4</v>
       </c>
@@ -29022,31 +29027,31 @@
       <c r="B45" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="176">
-        <v>42305</v>
-      </c>
-      <c r="D45" s="177"/>
+      <c r="C45" s="187">
+        <v>42136</v>
+      </c>
+      <c r="D45" s="188"/>
       <c r="E45" s="129">
         <v>2</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="218"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="186"/>
       <c r="L45" s="124" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="217" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="218"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="125" t="s">
@@ -29059,24 +29064,24 @@
       <c r="E46" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="210" t="s">
+      <c r="F46" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="212"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="L46" s="128" t="s">
         <v>230</v>
       </c>
       <c r="M46" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="O46" s="213"/>
+      <c r="O46" s="179"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29103,11 +29108,12 @@
     <row r="65" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="B2:G5"/>
@@ -29116,12 +29122,11 @@
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="B6:G8"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44">
@@ -29173,13 +29178,13 @@
       <c r="C1" s="155"/>
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="157"/>
       <c r="L1" s="157"/>
       <c r="M1" s="156"/>
@@ -29187,20 +29192,20 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="159"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="78"/>
       <c r="M2" s="77"/>
       <c r="N2" s="160"/>
@@ -29208,20 +29213,20 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="269"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
       <c r="L3" s="78"/>
       <c r="M3" s="77"/>
       <c r="N3" s="160"/>
@@ -29250,117 +29255,117 @@
       <c r="A5" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="234" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="270" t="s">
+      <c r="K5" s="231" t="s">
         <v>233</v>
       </c>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="272"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="233"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="279" t="str">
+      <c r="B6" s="240" t="str">
         <f>'Cover '!G24</f>
         <v>SRIKAIL GAS FIELD, BANGLADESH</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="279" t="s">
+      <c r="K6" s="240" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="285"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="246"/>
       <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="276" t="str">
+      <c r="B7" s="237" t="str">
         <f>'Cover '!G30</f>
         <v>60 MMSCFD SILICA GEL DEHYDRATION TYPE NATURAL GAS PLANT</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="278"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="276" t="s">
+      <c r="K7" s="237" t="s">
         <v>240</v>
       </c>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="301"/>
+      <c r="L7" s="238"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="305"/>
       <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="284"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="286" t="s">
+      <c r="K8" s="247" t="s">
         <v>241</v>
       </c>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="270" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="90">
         <v>1</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="147" t="s">
         <v>181</v>
       </c>
@@ -29374,16 +29379,16 @@
       <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="84">
         <v>1</v>
       </c>
@@ -29397,16 +29402,16 @@
       <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="19" t="s">
         <v>160</v>
       </c>
@@ -29420,7 +29425,7 @@
       <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -29443,16 +29448,16 @@
       <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="88" t="s">
         <v>156</v>
       </c>
@@ -29466,16 +29471,16 @@
       <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="88" t="s">
         <v>154</v>
       </c>
@@ -29489,16 +29494,16 @@
       <c r="O14" s="76"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="92">
         <v>7</v>
       </c>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="151" t="s">
         <v>226</v>
       </c>
@@ -29512,18 +29517,18 @@
       <c r="O15" s="76"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="271" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="93">
         <v>8</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="96" t="s">
         <v>150</v>
       </c>
@@ -29541,12 +29546,12 @@
       <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="131" t="s">
         <v>147</v>
       </c>
@@ -29562,16 +29567,16 @@
       <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="25">
         <v>9</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="131" t="s">
         <v>144</v>
       </c>
@@ -29587,16 +29592,16 @@
       <c r="O18" s="76"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="131" t="s">
         <v>102</v>
       </c>
@@ -29620,12 +29625,12 @@
       <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
       <c r="G20" s="131" t="s">
         <v>137</v>
       </c>
@@ -29647,16 +29652,16 @@
       <c r="O20" s="76"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="271"/>
       <c r="B21" s="25">
         <v>11</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="19" t="s">
         <v>131</v>
       </c>
@@ -29672,16 +29677,16 @@
       <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="271"/>
       <c r="B22" s="25">
         <v>12</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="262"/>
       <c r="G22" s="131" t="s">
         <v>182</v>
       </c>
@@ -29703,16 +29708,16 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239"/>
+      <c r="A23" s="271"/>
       <c r="B23" s="89">
         <v>13</v>
       </c>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="280" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="253"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="282"/>
       <c r="G23" s="24" t="s">
         <v>123</v>
       </c>
@@ -29723,27 +29728,27 @@
       <c r="J23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="250" t="s">
+      <c r="K23" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
+      <c r="L23" s="279"/>
+      <c r="M23" s="279"/>
       <c r="N23" s="137"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="273" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="90">
         <v>14</v>
       </c>
-      <c r="C24" s="254" t="s">
+      <c r="C24" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="256"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="285"/>
       <c r="G24" s="130" t="s">
         <v>118</v>
       </c>
@@ -29761,16 +29766,16 @@
       <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="242"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="25">
         <v>15</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
       <c r="G25" s="131" t="s">
         <v>114</v>
       </c>
@@ -29788,16 +29793,16 @@
       <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="242"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="25">
         <v>16</v>
       </c>
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="131" t="s">
         <v>81</v>
       </c>
@@ -29813,16 +29818,16 @@
       <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="242"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="25">
         <v>17</v>
       </c>
-      <c r="C27" s="219" t="s">
+      <c r="C27" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="131" t="s">
         <v>109</v>
       </c>
@@ -29838,16 +29843,16 @@
       <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="242"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="25">
         <v>18</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="131" t="s">
         <v>106</v>
       </c>
@@ -29863,16 +29868,16 @@
       <c r="O28" s="76"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="242"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="25">
         <v>19</v>
       </c>
-      <c r="C29" s="219" t="s">
+      <c r="C29" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="21" t="s">
         <v>179</v>
       </c>
@@ -29886,16 +29891,16 @@
       <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="242"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="25">
         <v>20</v>
       </c>
-      <c r="C30" s="228" t="s">
+      <c r="C30" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="229"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="230"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="288"/>
       <c r="G30" s="131" t="s">
         <v>102</v>
       </c>
@@ -29919,16 +29924,16 @@
       <c r="O30" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="242"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="25">
         <v>21</v>
       </c>
-      <c r="C31" s="219" t="s">
+      <c r="C31" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="131" t="s">
         <v>97</v>
       </c>
@@ -29952,12 +29957,12 @@
       <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="242"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="25"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="131" t="s">
         <v>92</v>
       </c>
@@ -29977,16 +29982,16 @@
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="242"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="25">
         <v>22</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
       <c r="G33" s="131" t="s">
         <v>88</v>
       </c>
@@ -30004,12 +30009,12 @@
       <c r="O33" s="76"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="242"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
       <c r="G34" s="131" t="s">
         <v>86</v>
       </c>
@@ -30027,12 +30032,12 @@
       <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="242"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="25"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
       <c r="G35" s="131" t="s">
         <v>84</v>
       </c>
@@ -30048,16 +30053,16 @@
       <c r="O35" s="76"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="242"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="25">
         <v>23</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="221"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="262"/>
       <c r="G36" s="131" t="s">
         <v>81</v>
       </c>
@@ -30073,64 +30078,64 @@
       <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="242"/>
+      <c r="A37" s="274"/>
       <c r="B37" s="25">
         <v>24</v>
       </c>
-      <c r="C37" s="219" t="s">
+      <c r="C37" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="G37" s="131" t="s">
         <v>79</v>
       </c>
       <c r="H37" s="133"/>
       <c r="I37" s="133"/>
-      <c r="J37" s="234" t="s">
+      <c r="J37" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="269"/>
       <c r="N37" s="134"/>
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="242"/>
+      <c r="A38" s="274"/>
       <c r="B38" s="25">
         <v>25</v>
       </c>
-      <c r="C38" s="219" t="s">
+      <c r="C38" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="289" t="s">
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="290"/>
-      <c r="I38" s="290"/>
-      <c r="J38" s="290"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="290"/>
-      <c r="N38" s="291"/>
+      <c r="H38" s="251"/>
+      <c r="I38" s="251"/>
+      <c r="J38" s="251"/>
+      <c r="K38" s="251"/>
+      <c r="L38" s="251"/>
+      <c r="M38" s="251"/>
+      <c r="N38" s="252"/>
       <c r="O38" s="76"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="242"/>
+      <c r="A39" s="274"/>
       <c r="B39" s="25">
         <v>26</v>
       </c>
-      <c r="C39" s="219" t="s">
+      <c r="C39" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
+      <c r="F39" s="262"/>
       <c r="G39" s="131" t="s">
         <v>74</v>
       </c>
@@ -30141,29 +30146,29 @@
       <c r="J39" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="K39" s="232" t="s">
+      <c r="K39" s="253" t="s">
         <v>71</v>
       </c>
-      <c r="L39" s="232"/>
-      <c r="M39" s="232"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="253"/>
       <c r="N39" s="134"/>
       <c r="O39" s="76"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="242"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="221"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="262"/>
       <c r="G40" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="257" t="s">
+      <c r="H40" s="254" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
       <c r="K40" s="20" t="s">
         <v>68</v>
       </c>
@@ -30173,16 +30178,16 @@
       <c r="O40" s="76"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="242"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="25">
         <v>27</v>
       </c>
-      <c r="C41" s="219" t="s">
+      <c r="C41" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
       <c r="G41" s="131" t="s">
         <v>66</v>
       </c>
@@ -30198,16 +30203,16 @@
       <c r="O41" s="76"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="243"/>
+      <c r="A42" s="275"/>
       <c r="B42" s="91">
         <v>28</v>
       </c>
-      <c r="C42" s="219" t="s">
+      <c r="C42" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="262"/>
       <c r="G42" s="131" t="s">
         <v>63</v>
       </c>
@@ -30225,12 +30230,12 @@
       <c r="O42" s="76"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="243"/>
+      <c r="A43" s="275"/>
       <c r="B43" s="91"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="221"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="261"/>
+      <c r="E43" s="261"/>
+      <c r="F43" s="262"/>
       <c r="G43" s="131" t="s">
         <v>60</v>
       </c>
@@ -30246,73 +30251,73 @@
       <c r="O43" s="76"/>
     </row>
     <row r="44" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="302"/>
+      <c r="A44" s="304"/>
       <c r="B44" s="92">
         <v>29</v>
       </c>
-      <c r="C44" s="222" t="s">
+      <c r="C44" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="223"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="303" t="s">
+      <c r="D44" s="290"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="301" t="s">
         <v>224</v>
       </c>
-      <c r="H44" s="304"/>
-      <c r="I44" s="304"/>
-      <c r="J44" s="304"/>
-      <c r="K44" s="304"/>
-      <c r="L44" s="304"/>
-      <c r="M44" s="304"/>
-      <c r="N44" s="305"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="302"/>
+      <c r="J44" s="302"/>
+      <c r="K44" s="302"/>
+      <c r="L44" s="302"/>
+      <c r="M44" s="302"/>
+      <c r="N44" s="303"/>
       <c r="O44" s="76"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="245" t="s">
+      <c r="A45" s="277" t="s">
         <v>196</v>
       </c>
       <c r="B45" s="93">
         <v>30</v>
       </c>
-      <c r="C45" s="225" t="s">
+      <c r="C45" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="226"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="247" t="s">
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="268"/>
+      <c r="G45" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="248"/>
-      <c r="K45" s="248"/>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
+      <c r="N45" s="221"/>
       <c r="O45" s="76"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="25"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="220"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="221"/>
-      <c r="G46" s="231" t="s">
+      <c r="C46" s="260"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="232"/>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="232"/>
-      <c r="L46" s="232"/>
-      <c r="M46" s="232"/>
-      <c r="N46" s="233"/>
+      <c r="H46" s="253"/>
+      <c r="I46" s="253"/>
+      <c r="J46" s="253"/>
+      <c r="K46" s="253"/>
+      <c r="L46" s="253"/>
+      <c r="M46" s="253"/>
+      <c r="N46" s="259"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
+      <c r="A47" s="277"/>
       <c r="B47" s="25">
         <v>31</v>
       </c>
@@ -30322,61 +30327,61 @@
       <c r="D47" s="133"/>
       <c r="E47" s="133"/>
       <c r="F47" s="134"/>
-      <c r="G47" s="247" t="s">
+      <c r="G47" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="H47" s="248" t="s">
+      <c r="H47" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="248"/>
-      <c r="J47" s="248"/>
-      <c r="K47" s="248"/>
-      <c r="L47" s="248"/>
-      <c r="M47" s="248"/>
-      <c r="N47" s="249"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
+      <c r="L47" s="220"/>
+      <c r="M47" s="220"/>
+      <c r="N47" s="221"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
-      <c r="G48" s="231" t="s">
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="262"/>
+      <c r="G48" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="232"/>
-      <c r="N48" s="233"/>
+      <c r="H48" s="253"/>
+      <c r="I48" s="253"/>
+      <c r="J48" s="253"/>
+      <c r="K48" s="253"/>
+      <c r="L48" s="253"/>
+      <c r="M48" s="253"/>
+      <c r="N48" s="259"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="245"/>
+      <c r="A49" s="277"/>
       <c r="B49" s="25">
         <v>32</v>
       </c>
-      <c r="C49" s="219"/>
-      <c r="D49" s="220"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="221"/>
-      <c r="G49" s="231" t="s">
+      <c r="C49" s="260"/>
+      <c r="D49" s="261"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="262"/>
+      <c r="G49" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="232"/>
-      <c r="I49" s="232"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="232"/>
-      <c r="L49" s="232"/>
-      <c r="M49" s="232"/>
-      <c r="N49" s="233"/>
+      <c r="H49" s="253"/>
+      <c r="I49" s="253"/>
+      <c r="J49" s="253"/>
+      <c r="K49" s="253"/>
+      <c r="L49" s="253"/>
+      <c r="M49" s="253"/>
+      <c r="N49" s="259"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="245"/>
+      <c r="A50" s="277"/>
       <c r="B50" s="25">
         <v>33</v>
       </c>
@@ -30386,28 +30391,28 @@
       <c r="D50" s="133"/>
       <c r="E50" s="133"/>
       <c r="F50" s="134"/>
-      <c r="G50" s="231" t="s">
+      <c r="G50" s="258" t="s">
         <v>191</v>
       </c>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="232"/>
-      <c r="L50" s="232"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="233"/>
+      <c r="H50" s="253"/>
+      <c r="I50" s="253"/>
+      <c r="J50" s="253"/>
+      <c r="K50" s="253"/>
+      <c r="L50" s="253"/>
+      <c r="M50" s="253"/>
+      <c r="N50" s="259"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="245"/>
+      <c r="A51" s="277"/>
       <c r="B51" s="25">
         <v>34</v>
       </c>
-      <c r="C51" s="219" t="s">
+      <c r="C51" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="220"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="221"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="261"/>
+      <c r="F51" s="262"/>
       <c r="G51" s="19" t="s">
         <v>50</v>
       </c>
@@ -30420,16 +30425,16 @@
       <c r="N51" s="164"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="245"/>
+      <c r="A52" s="277"/>
       <c r="B52" s="25">
         <v>35</v>
       </c>
-      <c r="C52" s="219" t="s">
+      <c r="C52" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="220"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="221"/>
+      <c r="D52" s="261"/>
+      <c r="E52" s="261"/>
+      <c r="F52" s="262"/>
       <c r="G52" s="18" t="s">
         <v>179</v>
       </c>
@@ -30442,16 +30447,16 @@
       <c r="N52" s="164"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="245"/>
+      <c r="A53" s="277"/>
       <c r="B53" s="25">
         <v>36</v>
       </c>
-      <c r="C53" s="219" t="s">
+      <c r="C53" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="220"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="221"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="262"/>
       <c r="G53" s="18" t="s">
         <v>179</v>
       </c>
@@ -30464,16 +30469,16 @@
       <c r="N53" s="164"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="245"/>
+      <c r="A54" s="277"/>
       <c r="B54" s="25">
         <v>37</v>
       </c>
-      <c r="C54" s="219" t="s">
+      <c r="C54" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="220"/>
-      <c r="E54" s="220"/>
-      <c r="F54" s="221"/>
+      <c r="D54" s="261"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="262"/>
       <c r="G54" s="18" t="s">
         <v>179</v>
       </c>
@@ -30486,16 +30491,16 @@
       <c r="N54" s="164"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="245"/>
+      <c r="A55" s="277"/>
       <c r="B55" s="95">
         <v>38</v>
       </c>
-      <c r="C55" s="219" t="s">
+      <c r="C55" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="220"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="221"/>
+      <c r="D55" s="261"/>
+      <c r="E55" s="261"/>
+      <c r="F55" s="262"/>
       <c r="G55" s="18" t="s">
         <v>184</v>
       </c>
@@ -30508,16 +30513,16 @@
       <c r="N55" s="164"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="246"/>
+      <c r="A56" s="278"/>
       <c r="B56" s="94">
         <v>39</v>
       </c>
-      <c r="C56" s="222" t="s">
+      <c r="C56" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="223"/>
-      <c r="E56" s="223"/>
-      <c r="F56" s="224"/>
+      <c r="D56" s="290"/>
+      <c r="E56" s="290"/>
+      <c r="F56" s="291"/>
       <c r="G56" s="15" t="s">
         <v>220</v>
       </c>
@@ -30665,6 +30670,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A24:A44"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:N38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="C55:F55"/>
     <mergeCell ref="A45:A56"/>
     <mergeCell ref="C45:F45"/>
@@ -30681,64 +30744,6 @@
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="C52:F52"/>
     <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:N38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A24:A44"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.19685039370078741" top="0.51181102362204722" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.19685039370078741"/>
@@ -30757,8 +30762,8 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A34" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -30799,94 +30804,94 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="184" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="187" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="190" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="187" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -30899,12 +30904,12 @@
     </row>
     <row r="7" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
       <c r="H7" s="36" t="s">
         <v>29</v>
       </c>
@@ -30923,12 +30928,12 @@
     </row>
     <row r="8" spans="1:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
       <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
@@ -30967,22 +30972,22 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31034,12 +31039,12 @@
       <c r="J13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="202" t="s">
+      <c r="K13" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="57"/>
       <c r="P13" s="3"/>
     </row>
@@ -31558,8 +31563,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
@@ -31574,8 +31579,8 @@
       <c r="K40" s="112"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
@@ -31590,8 +31595,8 @@
       <c r="K41" s="112"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
       <c r="S41" s="1" t="s">
         <v>7</v>
       </c>
@@ -31609,8 +31614,8 @@
       <c r="K42" s="112"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="181"/>
       <c r="S42" s="1" t="s">
         <v>6</v>
       </c>
@@ -31628,8 +31633,8 @@
       <c r="K43" s="112"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="205"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
       <c r="S43" s="1" t="s">
         <v>5</v>
       </c>
@@ -31647,8 +31652,8 @@
       <c r="K44" s="123"/>
       <c r="L44" s="120"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="207"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="216"/>
       <c r="S44" s="1" t="s">
         <v>4</v>
       </c>
@@ -31657,31 +31662,31 @@
       <c r="B45" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="176">
-        <v>42305</v>
-      </c>
-      <c r="D45" s="177"/>
+      <c r="C45" s="187">
+        <v>42136</v>
+      </c>
+      <c r="D45" s="188"/>
       <c r="E45" s="129">
         <v>2</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="218"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="186"/>
       <c r="L45" s="124" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="217" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="218"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="125" t="s">
@@ -31694,24 +31699,24 @@
       <c r="E46" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="210" t="s">
+      <c r="F46" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="212"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="L46" s="128" t="s">
         <v>230</v>
       </c>
       <c r="M46" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="O46" s="213"/>
+      <c r="O46" s="179"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31738,11 +31743,12 @@
     <row r="65" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="B2:G5"/>
@@ -31751,12 +31757,11 @@
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="B6:G8"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44">
@@ -31808,13 +31813,13 @@
       <c r="C1" s="155"/>
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
-      <c r="F1" s="264" t="s">
+      <c r="F1" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
       <c r="K1" s="157"/>
       <c r="L1" s="157"/>
       <c r="M1" s="156"/>
@@ -31822,20 +31827,20 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="159"/>
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="266"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="78"/>
       <c r="M2" s="77"/>
       <c r="N2" s="160"/>
@@ -31843,20 +31848,20 @@
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161"/>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="269"/>
+      <c r="C3" s="230"/>
       <c r="D3" s="78"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="267" t="s">
+      <c r="F3" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
       <c r="L3" s="78"/>
       <c r="M3" s="77"/>
       <c r="N3" s="160"/>
@@ -31885,117 +31890,117 @@
       <c r="A5" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="273" t="s">
+      <c r="B5" s="234" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="275"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="298" t="s">
+      <c r="K5" s="292" t="s">
         <v>233</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="300"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="294"/>
       <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="279" t="str">
+      <c r="B6" s="240" t="str">
         <f>'Cover '!G24</f>
         <v>SRIKAIL GAS FIELD, BANGLADESH</v>
       </c>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="242"/>
       <c r="J6" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="279" t="s">
+      <c r="K6" s="240" t="s">
         <v>212</v>
       </c>
-      <c r="L6" s="280"/>
-      <c r="M6" s="280"/>
-      <c r="N6" s="285"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="246"/>
       <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="279" t="str">
+      <c r="B7" s="240" t="str">
         <f>'Cover '!G30</f>
         <v>60 MMSCFD SILICA GEL DEHYDRATION TYPE NATURAL GAS PLANT</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="281"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="279" t="s">
+      <c r="K7" s="240" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="280"/>
-      <c r="N7" s="285"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="241"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="76"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="284"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
       <c r="J8" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="286">
+      <c r="K8" s="247">
         <v>1</v>
       </c>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="288"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="270" t="s">
         <v>164</v>
       </c>
       <c r="B9" s="90">
         <v>1</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257"/>
       <c r="G9" s="147" t="s">
         <v>214</v>
       </c>
@@ -32009,16 +32014,16 @@
       <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="271"/>
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="84">
         <v>1</v>
       </c>
@@ -32032,16 +32037,16 @@
       <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="271"/>
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="19" t="s">
         <v>201</v>
       </c>
@@ -32055,7 +32060,7 @@
       <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="239"/>
+      <c r="A12" s="271"/>
       <c r="B12" s="25">
         <v>4</v>
       </c>
@@ -32078,16 +32083,16 @@
       <c r="O12" s="76"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="271"/>
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="235" t="s">
+      <c r="C13" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="224"/>
       <c r="G13" s="88" t="s">
         <v>156</v>
       </c>
@@ -32101,16 +32106,16 @@
       <c r="O13" s="76"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="88" t="s">
         <v>154</v>
       </c>
@@ -32124,16 +32129,16 @@
       <c r="O14" s="76"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+      <c r="A15" s="272"/>
       <c r="B15" s="92">
         <v>7</v>
       </c>
-      <c r="C15" s="261" t="s">
+      <c r="C15" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="151" t="s">
         <v>179</v>
       </c>
@@ -32147,18 +32152,18 @@
       <c r="O15" s="76"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="271" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="93">
         <v>8</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="268"/>
       <c r="G16" s="96" t="s">
         <v>150</v>
       </c>
@@ -32176,12 +32181,12 @@
       <c r="O16" s="76"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="271"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="131" t="s">
         <v>147</v>
       </c>
@@ -32197,16 +32202,16 @@
       <c r="O17" s="76"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="271"/>
       <c r="B18" s="25">
         <v>9</v>
       </c>
-      <c r="C18" s="219" t="s">
+      <c r="C18" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="131" t="s">
         <v>144</v>
       </c>
@@ -32222,16 +32227,16 @@
       <c r="O18" s="76"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
+      <c r="A19" s="271"/>
       <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C19" s="219" t="s">
+      <c r="C19" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="131" t="s">
         <v>102</v>
       </c>
@@ -32255,12 +32260,12 @@
       <c r="O19" s="76"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="239"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
       <c r="G20" s="131" t="s">
         <v>137</v>
       </c>
@@ -32282,16 +32287,16 @@
       <c r="O20" s="76"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="271"/>
       <c r="B21" s="25">
         <v>11</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="19" t="s">
         <v>131</v>
       </c>
@@ -32307,7 +32312,7 @@
       <c r="O21" s="76"/>
     </row>
     <row r="22" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
+      <c r="A22" s="271"/>
       <c r="B22" s="25">
         <v>12</v>
       </c>
@@ -32330,18 +32335,18 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="241" t="s">
+      <c r="A23" s="273" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="90">
         <v>13</v>
       </c>
-      <c r="C23" s="254" t="s">
+      <c r="C23" s="283" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="256"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="285"/>
       <c r="G23" s="130" t="s">
         <v>118</v>
       </c>
@@ -32359,16 +32364,16 @@
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="242"/>
+      <c r="A24" s="274"/>
       <c r="B24" s="25">
         <v>14</v>
       </c>
-      <c r="C24" s="219" t="s">
+      <c r="C24" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="262"/>
       <c r="G24" s="131" t="s">
         <v>114</v>
       </c>
@@ -32386,16 +32391,16 @@
       <c r="O24" s="76"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="242"/>
+      <c r="A25" s="274"/>
       <c r="B25" s="25">
         <v>15</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="262"/>
       <c r="G25" s="131" t="s">
         <v>81</v>
       </c>
@@ -32411,16 +32416,16 @@
       <c r="O25" s="76"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="242"/>
+      <c r="A26" s="274"/>
       <c r="B26" s="25">
         <v>16</v>
       </c>
-      <c r="C26" s="219" t="s">
+      <c r="C26" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="131" t="s">
         <v>109</v>
       </c>
@@ -32436,16 +32441,16 @@
       <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="242"/>
+      <c r="A27" s="274"/>
       <c r="B27" s="25">
         <v>17</v>
       </c>
-      <c r="C27" s="219" t="s">
+      <c r="C27" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="131" t="s">
         <v>106</v>
       </c>
@@ -32461,16 +32466,16 @@
       <c r="O27" s="76"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="242"/>
+      <c r="A28" s="274"/>
       <c r="B28" s="25">
         <v>18</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="21" t="s">
         <v>204</v>
       </c>
@@ -32484,16 +32489,16 @@
       <c r="O28" s="76"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="242"/>
+      <c r="A29" s="274"/>
       <c r="B29" s="25">
         <v>19</v>
       </c>
-      <c r="C29" s="219" t="s">
+      <c r="C29" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="262"/>
       <c r="G29" s="131" t="s">
         <v>88</v>
       </c>
@@ -32511,12 +32516,12 @@
       <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="242"/>
+      <c r="A30" s="274"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="261"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="262"/>
       <c r="G30" s="131" t="s">
         <v>86</v>
       </c>
@@ -32534,12 +32539,12 @@
       <c r="O30" s="76"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="242"/>
+      <c r="A31" s="274"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="131" t="s">
         <v>84</v>
       </c>
@@ -32555,16 +32560,16 @@
       <c r="O31" s="76"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="242"/>
+      <c r="A32" s="274"/>
       <c r="B32" s="25">
         <v>20</v>
       </c>
-      <c r="C32" s="219" t="s">
+      <c r="C32" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="131" t="s">
         <v>81</v>
       </c>
@@ -32580,87 +32585,87 @@
       <c r="O32" s="76"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="242"/>
+      <c r="A33" s="274"/>
       <c r="B33" s="25">
         <v>21</v>
       </c>
-      <c r="C33" s="219" t="s">
+      <c r="C33" s="260" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="262"/>
       <c r="G33" s="131" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="133"/>
       <c r="I33" s="133"/>
-      <c r="J33" s="234" t="s">
+      <c r="J33" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
+      <c r="K33" s="269"/>
+      <c r="L33" s="269"/>
+      <c r="M33" s="269"/>
       <c r="N33" s="134"/>
       <c r="O33" s="76"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="242"/>
+      <c r="A34" s="274"/>
       <c r="B34" s="25">
         <v>22</v>
       </c>
-      <c r="C34" s="219" t="s">
+      <c r="C34" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="220"/>
-      <c r="E34" s="220"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="289" t="s">
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="250" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="290"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="290"/>
-      <c r="K34" s="290"/>
-      <c r="L34" s="290"/>
-      <c r="M34" s="290"/>
-      <c r="N34" s="291"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="252"/>
       <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="242"/>
+      <c r="A35" s="274"/>
       <c r="B35" s="25">
         <v>23</v>
       </c>
-      <c r="C35" s="219" t="s">
+      <c r="C35" s="260" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="262"/>
       <c r="G35" s="131" t="s">
         <v>206</v>
       </c>
       <c r="H35" s="133"/>
       <c r="I35" s="133"/>
       <c r="J35" s="135"/>
-      <c r="K35" s="232"/>
-      <c r="L35" s="232"/>
-      <c r="M35" s="232"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="253"/>
+      <c r="M35" s="253"/>
       <c r="N35" s="134"/>
       <c r="O35" s="76"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="242"/>
+      <c r="A36" s="274"/>
       <c r="B36" s="25">
         <v>24</v>
       </c>
-      <c r="C36" s="219" t="s">
+      <c r="C36" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="221"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="262"/>
       <c r="G36" s="131" t="s">
         <v>66</v>
       </c>
@@ -32676,16 +32681,16 @@
       <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="242"/>
+      <c r="A37" s="274"/>
       <c r="B37" s="25">
         <v>25</v>
       </c>
-      <c r="C37" s="219" t="s">
+      <c r="C37" s="260" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="220"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="262"/>
       <c r="G37" s="98" t="s">
         <v>208</v>
       </c>
@@ -32699,16 +32704,16 @@
       <c r="O37" s="76"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="244"/>
+      <c r="A38" s="276"/>
       <c r="B38" s="92">
         <v>26</v>
       </c>
-      <c r="C38" s="222" t="s">
+      <c r="C38" s="289" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="223"/>
-      <c r="E38" s="223"/>
-      <c r="F38" s="224"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="291"/>
       <c r="G38" s="145" t="s">
         <v>210</v>
       </c>
@@ -32722,117 +32727,117 @@
       <c r="O38" s="76"/>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="245" t="s">
+      <c r="A39" s="277" t="s">
         <v>196</v>
       </c>
       <c r="B39" s="93">
         <v>27</v>
       </c>
-      <c r="C39" s="225" t="s">
+      <c r="C39" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="226"/>
-      <c r="E39" s="226"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="292" t="s">
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="268"/>
+      <c r="G39" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="293"/>
-      <c r="I39" s="293"/>
-      <c r="J39" s="293"/>
-      <c r="K39" s="293"/>
-      <c r="L39" s="293"/>
-      <c r="M39" s="293"/>
-      <c r="N39" s="294"/>
+      <c r="H39" s="299"/>
+      <c r="I39" s="299"/>
+      <c r="J39" s="299"/>
+      <c r="K39" s="299"/>
+      <c r="L39" s="299"/>
+      <c r="M39" s="299"/>
+      <c r="N39" s="300"/>
       <c r="O39" s="76"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="245"/>
+      <c r="A40" s="277"/>
       <c r="B40" s="25"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="231" t="s">
+      <c r="C40" s="260"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="261"/>
+      <c r="F40" s="262"/>
+      <c r="G40" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="232"/>
-      <c r="I40" s="232"/>
-      <c r="J40" s="232"/>
-      <c r="K40" s="232"/>
-      <c r="L40" s="232"/>
-      <c r="M40" s="232"/>
-      <c r="N40" s="233"/>
+      <c r="H40" s="253"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="253"/>
+      <c r="K40" s="253"/>
+      <c r="L40" s="253"/>
+      <c r="M40" s="253"/>
+      <c r="N40" s="259"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="245"/>
+      <c r="A41" s="277"/>
       <c r="B41" s="25"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="231" t="s">
+      <c r="C41" s="260"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="258" t="s">
         <v>211</v>
       </c>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
-      <c r="J41" s="232"/>
-      <c r="K41" s="232"/>
-      <c r="L41" s="232"/>
-      <c r="M41" s="232"/>
-      <c r="N41" s="233"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="253"/>
+      <c r="J41" s="253"/>
+      <c r="K41" s="253"/>
+      <c r="L41" s="253"/>
+      <c r="M41" s="253"/>
+      <c r="N41" s="259"/>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="245"/>
+      <c r="A42" s="277"/>
       <c r="B42" s="25">
         <v>32</v>
       </c>
-      <c r="C42" s="219" t="s">
+      <c r="C42" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="231" t="s">
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="232"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="232"/>
-      <c r="K42" s="232"/>
-      <c r="L42" s="232"/>
-      <c r="M42" s="232"/>
-      <c r="N42" s="233"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="253"/>
+      <c r="J42" s="253"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="253"/>
+      <c r="N42" s="259"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="245"/>
+      <c r="A43" s="277"/>
       <c r="B43" s="25"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="231" t="s">
+      <c r="C43" s="260"/>
+      <c r="D43" s="261"/>
+      <c r="E43" s="261"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="232"/>
-      <c r="I43" s="232"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="232"/>
-      <c r="L43" s="232"/>
-      <c r="M43" s="232"/>
-      <c r="N43" s="233"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
+      <c r="J43" s="253"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="253"/>
+      <c r="N43" s="259"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="245"/>
+      <c r="A44" s="277"/>
       <c r="B44" s="25">
         <v>33</v>
       </c>
-      <c r="C44" s="219" t="s">
+      <c r="C44" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="221"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="261"/>
+      <c r="F44" s="262"/>
       <c r="G44" s="19" t="s">
         <v>50</v>
       </c>
@@ -32845,16 +32850,16 @@
       <c r="N44" s="164"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="245"/>
+      <c r="A45" s="277"/>
       <c r="B45" s="25">
         <v>34</v>
       </c>
-      <c r="C45" s="219" t="s">
+      <c r="C45" s="260" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="220"/>
-      <c r="E45" s="220"/>
-      <c r="F45" s="221"/>
+      <c r="D45" s="261"/>
+      <c r="E45" s="261"/>
+      <c r="F45" s="262"/>
       <c r="G45" s="18" t="s">
         <v>179</v>
       </c>
@@ -32867,16 +32872,16 @@
       <c r="N45" s="164"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="245"/>
+      <c r="A46" s="277"/>
       <c r="B46" s="25">
         <v>35</v>
       </c>
-      <c r="C46" s="219" t="s">
+      <c r="C46" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="220"/>
-      <c r="E46" s="220"/>
-      <c r="F46" s="221"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="262"/>
       <c r="G46" s="18" t="s">
         <v>179</v>
       </c>
@@ -32889,16 +32894,16 @@
       <c r="N46" s="164"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
+      <c r="A47" s="277"/>
       <c r="B47" s="25">
         <v>36</v>
       </c>
-      <c r="C47" s="219" t="s">
+      <c r="C47" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="220"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="221"/>
+      <c r="D47" s="261"/>
+      <c r="E47" s="261"/>
+      <c r="F47" s="262"/>
       <c r="G47" s="18" t="s">
         <v>179</v>
       </c>
@@ -32911,16 +32916,16 @@
       <c r="N47" s="164"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="25">
         <v>37</v>
       </c>
-      <c r="C48" s="219" t="s">
+      <c r="C48" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
+      <c r="D48" s="261"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="262"/>
       <c r="G48" s="18" t="s">
         <v>184</v>
       </c>
@@ -32933,16 +32938,16 @@
       <c r="N48" s="164"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="246"/>
+      <c r="A49" s="278"/>
       <c r="B49" s="94">
         <v>39</v>
       </c>
-      <c r="C49" s="222" t="s">
+      <c r="C49" s="289" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="223"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="224"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="290"/>
+      <c r="F49" s="291"/>
       <c r="G49" s="15" t="s">
         <v>220</v>
       </c>
@@ -33090,54 +33095,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A23:A38"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="C33:F33"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="A39:A49"/>
     <mergeCell ref="C39:F39"/>
@@ -33154,10 +33111,58 @@
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A23:A38"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.2" top="0.5" bottom="0.2" header="0.5" footer="0.2"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -33172,8 +33177,8 @@
   </sheetPr>
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A30" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -33214,94 +33219,94 @@
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="184" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="186"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="187" t="s">
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="189"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="190" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="192"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="203"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="187" t="s">
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="189"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="200"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="206"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -33314,12 +33319,12 @@
     </row>
     <row r="7" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
       <c r="H7" s="36" t="s">
         <v>29</v>
       </c>
@@ -33338,12 +33343,12 @@
     </row>
     <row r="8" spans="1:21" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
       <c r="H8" s="42" t="s">
         <v>26</v>
       </c>
@@ -33382,22 +33387,22 @@
     </row>
     <row r="10" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="212"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -33449,12 +33454,12 @@
       <c r="J13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="202" t="s">
+      <c r="K13" s="213" t="s">
         <v>233</v>
       </c>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="214"/>
       <c r="O13" s="57"/>
       <c r="P13" s="3"/>
     </row>
@@ -33973,8 +33978,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="103"/>
       <c r="M39" s="103"/>
-      <c r="N39" s="214"/>
-      <c r="O39" s="215"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="183"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
@@ -33989,8 +33994,8 @@
       <c r="K40" s="112"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="205"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="181"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="113"/>
@@ -34005,8 +34010,8 @@
       <c r="K41" s="112"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="181"/>
       <c r="S41" s="1" t="s">
         <v>7</v>
       </c>
@@ -34024,8 +34029,8 @@
       <c r="K42" s="112"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="205"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="181"/>
       <c r="S42" s="1" t="s">
         <v>6</v>
       </c>
@@ -34043,8 +34048,8 @@
       <c r="K43" s="112"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="205"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
       <c r="S43" s="1" t="s">
         <v>5</v>
       </c>
@@ -34062,8 +34067,8 @@
       <c r="K44" s="123"/>
       <c r="L44" s="120"/>
       <c r="M44" s="120"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="207"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="216"/>
       <c r="S44" s="1" t="s">
         <v>4</v>
       </c>
@@ -34072,31 +34077,31 @@
       <c r="B45" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="176">
-        <v>42305</v>
-      </c>
-      <c r="D45" s="177"/>
+      <c r="C45" s="187">
+        <v>42136</v>
+      </c>
+      <c r="D45" s="188"/>
       <c r="E45" s="129">
         <v>2</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G45" s="217"/>
-      <c r="H45" s="217"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="217"/>
-      <c r="K45" s="218"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="186"/>
       <c r="L45" s="124" t="s">
         <v>235</v>
       </c>
       <c r="M45" s="124" t="s">
         <v>236</v>
       </c>
-      <c r="N45" s="208" t="s">
+      <c r="N45" s="217" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="209"/>
+      <c r="O45" s="218"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="125" t="s">
@@ -34109,24 +34114,24 @@
       <c r="E46" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="210" t="s">
+      <c r="F46" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="212"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="L46" s="128" t="s">
         <v>230</v>
       </c>
       <c r="M46" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="210" t="s">
+      <c r="N46" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="O46" s="213"/>
+      <c r="O46" s="179"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34153,13 +34158,6 @@
     <row r="65" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="F45:K45"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="K13:N13"/>
@@ -34172,6 +34170,13 @@
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="F45:K45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L44">
